--- a/Question_Sets/Role-specific skills/LinkedIn Advertising.xlsx
+++ b/Question_Sets/Role-specific skills/LinkedIn Advertising.xlsx
@@ -16,23 +16,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a LinkedIn ads specialist at a healthcare center that is looking to recruit. You are creating a campaign to attract medical professionals, and the LinkedIn Insight Tag has been implemented on the website.Which campaign objective should you select?', 'ques_type': 2, 'options': ['Awareness', 'Job applicants', 'Video views', 'Engagement'], 'score': 'Job applicants'}, {'title': "You are a LinkedIn ads specialist for a professional training institution. You're looking to target cold audiences to increase enrollment in online courses and workshops among working professionals seeking to enhance their skills and knowledge. Which targeting options should you use?", 'ques_type': 15, 'options': ['LinkedIn’s audience templates.', 'LinkedIn’s audience attributes.', 'A matched audience based on a customer list.', 'A matched audience retargeting website visitors.'], 'score': ['LinkedIn’s audience templates.', 'LinkedIn’s audience attributes.']}, {'title': 'You are a LinkedIn ads specialist for a nonprofit organization. The organization wants to raise awareness about its cause and attract volunteers and donors passionate about its mission.Which action should you take?', 'ques_type': 2, 'options': ['Employ detailed targeting using audience attributes.', 'Create a lead generation campaign.', 'Focus ad campaigns during standard working hours.', 'Use extensive copy in your ads.'], 'score': 'Employ detailed targeting using audience attributes.'}, {'title': 'You are a paid social specialist for a financial advisory firm looking to target high-net-worth individuals and generate inquiries about its wealth management services. Your website campaign has a high frequency and a low click-through rate. Which actions should you take?', 'ques_type': 15, 'options': ['Change the conversion event.', 'Increase the daily budget.', 'Add more creatives.', 'Duplicate the campaign. ', 'Add a lookalike audience of website visitors.', 'Broaden your targeting.'], 'score': ['Add more creatives.', 'Broaden your targeting.']}]</t>
+    <t>questions = [
+    {
+        "title": "You are a LinkedIn ads specialist at a healthcare center that is looking to recruit. You are creating a campaign to attract medical professionals, and the LinkedIn Insight Tag has been implemented on the website.Which campaign objective should you select?",
+        "ques_type": 2,
+        "options": [
+            "Awareness",
+            "Job applicants",
+            "Video views",
+            "Engagement"
+        ],
+        "score": "Job applicants"
+    },
+    {
+        "title": "You are a LinkedIn ads specialist for a professional training institution. You're looking to target cold audiences to increase enrollment in online courses and workshops among working professionals seeking to enhance their skills and knowledge. Which targeting options should you use?",
+        "ques_type": 15,
+        "options": [
+            "LinkedIn\u2019s audience templates.",
+            "LinkedIn\u2019s audience attributes.",
+            "A matched audience based on a customer list.",
+            "A matched audience retargeting website visitors."
+        ],
+        "score": [
+            "LinkedIn\u2019s audience templates.",
+            "LinkedIn\u2019s audience attributes."
+        ]
+    },
+    {
+        "title": "You are a LinkedIn ads specialist for a nonprofit organization. The organization wants to raise awareness about its cause and attract volunteers and donors passionate about its mission.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Employ detailed targeting using audience attributes.",
+            "Create a lead generation campaign.",
+            "Focus ad campaigns during standard working hours.",
+            "Use extensive copy in your ads."
+        ],
+        "score": "Employ detailed targeting using audience attributes."
+    },
+    {
+        "title": "You are a paid social specialist for a financial advisory firm looking to target high-net-worth individuals and generate inquiries about its wealth management services. Your website campaign has a high frequency and a low click-through rate. Which actions should you take?",
+        "ques_type": 15,
+        "options": [
+            "Change the conversion event.",
+            "Increase the daily budget.",
+            "Add more creatives.",
+            "Duplicate the campaign. ",
+            "Add a lookalike audience of website visitors.",
+            "Broaden your targeting."
+        ],
+        "score": [
+            "Add more creatives.",
+            "Broaden your targeting."
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +101,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +401,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
